--- a/bot/Message.xlsx
+++ b/bot/Message.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45016.64537075232</v>
+        <v>45016.7038600926</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>🧦Інша допомога</t>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>🧳Я внутрішньо переміщена особа</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>g g g</t>
+          <t>1 2 3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,16 +501,21 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45016.64587778935</v>
+        <v>45016.70711219907</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>🧦Інша допомога</t>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>🧳Я внутрішньо переміщена особа</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>f f f</t>
+          <t>1 2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -524,30 +534,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45016.64590317129</v>
+        <v>45016.71018564815</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>📦Гуманітарна допомога</t>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>🧳Я внутрішньо переміщена особа</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>На р р</t>
+          <t>1 2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RoboCop</t>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5209787710</v>
+        <v>759572442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45016.65038148148</v>
+        <v>45016.71754296296</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -556,59 +576,156 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>🤲Я волонтер</t>
+          <t>🧳Я внутрішньо переміщена особа</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Тест работы 😅😅</t>
+          <t>def ignor_button(message, button_location, button_who_are_you = None):
+    if message.text == '/start':
+        language_selection(message)
+    elif message.text == '/menu':
+        main_menu(message)
+    elif message.text == '/share':
+        share(message)
+    elif message.text == '\U0001f519Hазад':
+        main_help_project (message)
+    elif message.text == '\U0001f519Haзaд':
+        button_back_main_help_project (message)
+    elif message.text == '\u23EAВ головне меню':
+        main_menu(message)
+    elif message.text == "\U0001f519Bаck":
+        main_menu_donats (message)
+    elif message.text == "\u23EATo main menu":
+        main_menu(message)
+    elif message.content_type != 'text' or len(message.text.split()) &lt; 4:
+        bot.send_chat_action(message.chat.id, 'typing')
+        chat_id = message.chat.id
+        if chat_id in user_languages and user_languages[chat_id] == '🇬🇧English':
+            bot.send_message(message.chat.id, text=text.eng_get_help_not_understand, parse_mode='HTML')
+            bot.send_message(message.chat.id, text=text.eng_button_driver, parse_mode='HTML')
+        else:
+            bot.send_message(message.chat.id, text=text.get_help_not_understand, parse_mode='HTML')
+            bot.send_message(message.chat.id, text=text.button_driver, parse_mode='HTML')
+            как здесь заново запустить проверку с начала кода ?
+    else:
+        help_zsy = SendMessage(message, button_location, button_who_are_you)
+        help_zsy.process_request()def ignor_button(message, button_location, button_who_are_you = None):
+    if message.text == '/start':
+        language_selection(message)
+    elif message.text == '/menu':
+        main_menu(message)
+    elif message.text == '/share':
+        share(message)
+    elif message.text == '\U0001f519Hазад':
+        main_help_project (message)
+    elif message.text == '\U0001f519Haзaд':
+        button_back_main_help_project (message)
+    elif message.text == '\u23EAВ головне меню':
+        main_menu(message)
+    elif message.text == "\U0001f519Bаck":
+        main_menu_donats (message)
+    elif message.text == "\u23EATo main menu":
+        main_menu(message)
+    elif message.content_type != 'text' or len(message.text.split()) &lt; 4:
+        bot.send_chat_action(message.chat.id, 'typing')
+        chat_id = message.chat.id
+        if chat_id in user_languages and user_languages[chat_id] == '🇬🇧English':
+            bot.send_message(message.chat.id, text=text.eng_get_help_not_understand, parse_mode='HTML')
+            bot.send_message(message.chat.id, text=text.eng_button_driver, parse_mode='HTML')
+        else:
+            bot.send_message(message.chat.id, text=text.get_help_not_understand, parse_mode='HTML')
+            bot.send_message(message.chat.id, text=text.button_driver, parse_mode='HTML')
+            как здесь заново запустить проверку с начала кода ?
+    else:
+        help_zsy = SendMessage(message, button_location, button_who_are_you)
+        help_zsy.process_request()def ignor_button(message, button_location, button_who_are_you = None):
+    if message.text == '/start':
+        language_selection(message)
+    elif message.text == '/menu':
+        main_menu(message)
+    elif message.text == '/share':
+        share(message)
+    elif message.text == '\U0001f519Hазад':
+        main_help_project (message)
+    elif message.text == '\U0001f519Haзaд':
+        button_back_main_help_project (message)
+    elif message.text == '\u23EAВ головне меню':
+        main_menu(message)
+    elif message.text == "\U0001f519Bаck":
+        main_menu_donats (message)
+    elif message.text == "\u23EATo main menu":
+        main_menu(message)
+    elif message.content_type != 'text' or len(message.text.split()) &lt; 4:
+        bot.send_chat_action(message.chat.id, 'typing')
+        chat_id = message.chat.id
+        if chat_id in user_languages and user_languages[chat_id] == '🇬🇧English':
+            bot.send_message(message.chat.id, text=text.eng_get_help_not_understand, parse_mode='HTML')
+            bot.send_message(message.chat.id, text=text.eng_button_driver, parse_mode='HTML')</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Павел</t>
+          <t>Артём</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pavl00</t>
+          <t>Wand1sh</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>402411612</v>
+        <v>759572442</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45016.65231328704</v>
+        <v>45016.71829321759</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>📦Гуманітарна допомога</t>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>🧳Я внутрішньо переміщена особа</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Денег нет , меняю уже</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Павел</t>
+          <t>Артём</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pavl00</t>
+          <t>Wand1sh</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>402411612</v>
+        <v>759572442</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45016.65324560185</v>
+        <v>45016.71884833333</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -622,26 +739,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Тест тем тест Паша</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Павел</t>
+          <t>Артём</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pavl00</t>
+          <t>Wand1sh</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>402411612</v>
+        <v>759572442</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45016.65327011574</v>
+        <v>45016.71929980324</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -650,12 +779,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>🤲Я волонтер</t>
+          <t>😢Я людина, яка постраждала від війни</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -674,7 +815,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45016.65418137731</v>
+        <v>45016.72099756944</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -707,7 +848,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45016.65418346065</v>
+        <v>45016.7242114699</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -716,31 +857,43 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>🪖Я військовослужбовець</t>
+          <t>🧳Я внутрішньо переміщена особа</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Тест ком тест Паша</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Павел</t>
+          <t>Артём</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pavl00</t>
+          <t>Wand1sh</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>402411612</v>
+        <v>759572442</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45016.66023723379</v>
+        <v>45016.73065956018</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -754,7 +907,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Павло наш Медвідь</t>
+          <t>1 2 3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -773,7 +926,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45016.66317190972</v>
+        <v>45016.73099802083</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -782,12 +935,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>🧳Я внутрішньо переміщена особа</t>
+          <t>😢Я людина, яка постраждала від війни</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -806,7 +971,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45016.66392438657</v>
+        <v>45016.73179388889</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -815,12 +980,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>🧳Я внутрішньо переміщена особа</t>
+          <t>😢Я людина, яка постраждала від війни</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -839,7 +1016,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45016.66459303241</v>
+        <v>45016.73265347222</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -848,12 +1025,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>🪖Я військовослужбовець</t>
+          <t>🧳Я внутрішньо переміщена особа</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -872,7 +1061,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45016.66501388889</v>
+        <v>45016.73311283565</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -881,12 +1070,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>🤲Я волонтер</t>
+          <t>🪖Я військовослужбовець</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -905,16 +1106,33 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45016.66702579861</v>
+        <v>45016.73333119213</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Реалізувати Вашу мрію</t>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>😢Я людина, яка постраждала від війни</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -933,16 +1151,33 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45016.66942603009</v>
+        <v>45016.7349967824</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>🪖Допомога для ЗСУ</t>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>😢Я людина, яка постраждала від війни</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -961,7 +1196,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45016.669816875</v>
+        <v>45016.73589248842</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -975,7 +1210,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -994,16 +1241,33 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45016.67305693287</v>
+        <v>45016.73629763889</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>🙏Реалізувати Вашу мрію</t>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>🪖Я військовослужбовець</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1022,16 +1286,33 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45016.67346947766</v>
+        <v>45016.73815337963</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>📦Гуманітарна допомога</t>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>🧳Я внутрішньо переміщена особа</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1045,6 +1326,51 @@
         </is>
       </c>
       <c r="H20" t="n">
+        <v>759572442</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45016.7385074298</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>👨‍⚖️Юридична консультація</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>🧳Я внутрішньо переміщена особа</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Код, кКод, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.
+В целом, эта функция проверяет текст сообщения пользователя и выполняет определенные действия в зависимости от того, что было написано. Если сообщение содержит команды, такие как "/start", "/menu" или "/share", функция вызывает соответствующие функции для обработки этих команд. Если сообщение содержит кнопки, функция вызывает другую функцию с параметрами кнопки.
+Если сообщение не является текстом или содержит менее 4 слов, функция отправляет сообщение пользователю и предлагает помощь.Код, который вы предоставили, является функцией на языке Python. Эта функция, вероятно, используется в каком-то боте для обработки сообщений пользователя.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Артём</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Wand1sh</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>759572442</v>
       </c>
     </row>
